--- a/AccountData.xlsx
+++ b/AccountData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>ANAME</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Vacaville</t>
   </si>
   <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
     <t>Carter Skinner</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Yazoo City</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
     <t>Bianca Pacheco</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Cary</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>Maxwell Riggs</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Claremont</t>
   </si>
   <si>
-    <t>Delaware</t>
-  </si>
-  <si>
     <t>Adrienne Sloan</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>Elmira</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
     <t>Jennifer Mcintyre</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>Downey</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Allen Bentley</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t>Orlando</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Zephania Bryan</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
     <t>Fort Collins</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Bo Valencia</t>
   </si>
   <si>
@@ -222,9 +198,6 @@
     <t>Aspen</t>
   </si>
   <si>
-    <t>Montana</t>
-  </si>
-  <si>
     <t>Lacota Kirby</t>
   </si>
   <si>
@@ -234,9 +207,6 @@
     <t>Murrieta</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Felix Hahn</t>
   </si>
   <si>
@@ -246,9 +216,6 @@
     <t>Fajardo</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>Ross Yang</t>
   </si>
   <si>
@@ -271,6 +238,30 @@
   </si>
   <si>
     <t>MT</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1274,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8">
         <v>48148</v>
@@ -1282,16 +1275,16 @@
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E4" s="8">
         <v>90410</v>
@@ -1299,16 +1292,16 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>69943</v>
@@ -1316,16 +1309,16 @@
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E6" s="8">
         <v>42712</v>
@@ -1333,16 +1326,16 @@
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>64426</v>
@@ -1350,16 +1343,16 @@
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8">
         <v>52629</v>
@@ -1367,16 +1360,16 @@
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E9" s="8">
         <v>21529</v>
@@ -1384,16 +1377,16 @@
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8">
         <v>34894</v>
@@ -1401,16 +1394,16 @@
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8">
         <v>83842</v>
@@ -1418,33 +1411,33 @@
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8">
-        <v>3214</v>
+        <v>32140</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8">
         <v>10967</v>
@@ -1452,16 +1445,16 @@
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8">
         <v>18105</v>
@@ -1469,33 +1462,33 @@
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8">
-        <v>1448</v>
+        <v>14480</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8">
         <v>16022</v>
@@ -1503,33 +1496,33 @@
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8">
-        <v>498</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8">
         <v>90992</v>
@@ -1537,16 +1530,16 @@
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8">
         <v>10306</v>
@@ -1554,16 +1547,16 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8">
         <v>42575</v>
@@ -1571,16 +1564,16 @@
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E21" s="11">
         <v>88568</v>
